--- a/biology/Botanique/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(O)/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(O).xlsx
+++ b/biology/Botanique/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(O)/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(O).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(O)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 à compléter par ordre alphabétique
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(O)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Obr
-Obregonia - fam. Cactacées (Cactus)
+          <t>Obr</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Obregonia - fam. Cactacées (Cactus)
 Obregonia denegrii
 </t>
         </is>
@@ -527,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(O)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,8 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Opu
-Opuntia - fam. Cactacées (Cactus)
+          <t>Opu</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Opuntia - fam. Cactacées (Cactus)
 Opuntia acanthocarpa
 Opuntia alexanderi
 Opuntia aoracantha
@@ -721,7 +743,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(O)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -741,8 +763,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ore
-Oreocereus - fam. Cactacées (Cactus)
+          <t>Ore</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Oreocereus - fam. Cactacées (Cactus)
 Oreocereus celsianus
 Oreocereus doelzianus
 Oreocereus hempelianus
@@ -750,12 +777,80 @@
 Oreocereus trollii
 Oreocereus fossulatus
 Oreopanax
-Oreopanax xalapensis
-Oro
-Oroya - fam. Cactacées (Cactus)
-Oroya peruviana
-Ort
-Ortegocactus - fam. Cactacées (Cactus)
+Oreopanax xalapensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Or</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Oro</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Oroya - fam. Cactacées (Cactus)
+Oroya peruviana</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(O)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Or</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ort</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ortegocactus - fam. Cactacées (Cactus)
 Ortegocactus macdougallii
  Portail de l’écologie   Portail de la botanique   Portail de l’Amérique                   </t>
         </is>
